--- a/examples/simple/template-simple.xlsx
+++ b/examples/simple/template-simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrey/Development/xlsx-template/examples/simple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B402C08C-255F-F742-803F-D48E56CE2DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B8C166-18E9-7040-91B5-D8C07C56670B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="960" windowWidth="24280" windowHeight="14500" xr2:uid="{F57DA067-E5F1-5D4A-AA7E-F1E915843843}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>str(data.strVal)</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>date(data.dateVal)</t>
+  </si>
+  <si>
+    <t>number(data.numberVal 0%)</t>
+  </si>
+  <si>
+    <t>date(data.dateVal dd.mm.yyyy hh:mm)</t>
+  </si>
+  <si>
+    <t>date(data.dateVal dd.mm.yyyy)</t>
   </si>
 </sst>
 </file>
@@ -404,17 +413,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2832FB-7784-9F45-938D-133BC38FFC24}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
@@ -444,6 +453,19 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
